--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059355BA-D4B0-4B01-8D3D-51B3D2E73491}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2AA11-4DA8-4052-A9C8-CA10AE97D217}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="135">
   <si>
     <t>thumbnail</t>
   </si>
@@ -447,12 +447,6 @@
     <t>S_CONTENTS_2</t>
   </si>
   <si>
-    <t>S_SETUP_LINECONVERT</t>
-  </si>
-  <si>
-    <t>S_CHECKCOUNT_LINECONVERT</t>
-  </si>
-  <si>
     <t>ソース生成スタート</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
 コンテンツ②は全ステートを関数テンプレートにて展開</t>
   </si>
   <si>
-    <t>行変換準備</t>
-  </si>
-  <si>
     <t>行変換のカウンタ確認</t>
   </si>
   <si>
@@ -478,12 +469,6 @@
   </si>
   <si>
     <t>create_contents2();</t>
-  </si>
-  <si>
-    <t>setup_lineconvert();</t>
-  </si>
-  <si>
-    <t>checkcount_lineconvert();</t>
   </si>
   <si>
     <t>/
@@ -496,11 +481,6 @@
 ソース生成</t>
   </si>
   <si>
-    <t>/CreateSource/LineConvert/
-(485,234)
-行変換</t>
-  </si>
-  <si>
     <t>100008</t>
   </si>
   <si>
@@ -511,30 +491,6 @@
   </si>
   <si>
     <t>100012</t>
-  </si>
-  <si>
-    <t>S_GETLINE_LINECONVERT</t>
-  </si>
-  <si>
-    <t>S_IS_CONTENTS_1_LINECONVERT</t>
-  </si>
-  <si>
-    <t>S_IS_CONTENTS_1_LINECONVERT1</t>
-  </si>
-  <si>
-    <t>S_IS_INCLUDE_LINECONVERT</t>
-  </si>
-  <si>
-    <t>S_IS_MACRO_LINECONVERT1</t>
-  </si>
-  <si>
-    <t>S_NEXT_LINECONVERT</t>
-  </si>
-  <si>
-    <t>S_ADDLINE_LINECONVERT</t>
-  </si>
-  <si>
-    <t>S_IS_END_LINECONVERT</t>
   </si>
   <si>
     <t>一行取得</t>
@@ -562,52 +518,183 @@
 以後、":"を行要素とみなす。</t>
   </si>
   <si>
-    <t>getline_lineconvert();</t>
-  </si>
-  <si>
-    <t>is_contents_1_lineconvert();</t>
-  </si>
-  <si>
-    <t>is_contents_2_lineconvert();</t>
-  </si>
-  <si>
-    <t>is_include_lineconvert();</t>
-  </si>
-  <si>
-    <t>is_macro_lineconvert();</t>
-  </si>
-  <si>
-    <t>next_lineconvert();</t>
-  </si>
-  <si>
-    <t>add_line_lineconvert();</t>
-  </si>
-  <si>
-    <t>is_end_lineconvert();</t>
-  </si>
-  <si>
-    <t>br_OK(S_GETLINE_LINECONVERT);
-br_NG(S_WRITEFILE);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LINECONVERT);
-br_NO(S_IS_CONTENTS_1_LINECONVERT1);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LINECONVERT);
-br_NO(S_IS_INCLUDE_LINECONVERT);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LINECONVERT);
-br_NO(S_IS_MACRO_LINECONVERT1);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LINECONVERT);
-br_NO(S_ADDLINE_LINECONVERT);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LINECONVERT);
-br_NO(S_IS_CONTENTS_1_LINECONVERT);</t>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>100018</t>
+  </si>
+  <si>
+    <t>100019</t>
+  </si>
+  <si>
+    <t>100020</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>S_GETLINE_LC</t>
+  </si>
+  <si>
+    <t>S_SETUP_LC</t>
+  </si>
+  <si>
+    <t>S_CHECKCOUNT_LC</t>
+  </si>
+  <si>
+    <t>S_IS_CONTENTS_1_LC</t>
+  </si>
+  <si>
+    <t>S_IS_CONTENTS_2_LC</t>
+  </si>
+  <si>
+    <t>S_IS_INCLUDE_LC</t>
+  </si>
+  <si>
+    <t>S_IS_MACRO_LC</t>
+  </si>
+  <si>
+    <t>S_NEXT_LC</t>
+  </si>
+  <si>
+    <t>S_ADDLINE_LC</t>
+  </si>
+  <si>
+    <t>S_IS_END_LC</t>
+  </si>
+  <si>
+    <t>getline_lc();</t>
+  </si>
+  <si>
+    <t>checkcount_lc();</t>
+  </si>
+  <si>
+    <t>is_contents_1_lc();</t>
+  </si>
+  <si>
+    <t>is_contents_2_lc();</t>
+  </si>
+  <si>
+    <t>is_macro_lc();</t>
+  </si>
+  <si>
+    <t>next_lc();</t>
+  </si>
+  <si>
+    <t>add_line_lc();</t>
+  </si>
+  <si>
+    <t>is_end_lc();</t>
+  </si>
+  <si>
+    <t>/CreateSource/LineConvert/
+(635,382)
+行変換</t>
+  </si>
+  <si>
+    <t>S_CHECK_AGAIN</t>
+  </si>
+  <si>
+    <t>再確認必要か？</t>
+  </si>
+  <si>
+    <t>100021</t>
+  </si>
+  <si>
+    <t>行変換準備
+lc = LineConvert</t>
+  </si>
+  <si>
+    <t>S_SETUP2_LC</t>
+  </si>
+  <si>
+    <t>バッファを行に分割</t>
+  </si>
+  <si>
+    <t>setup_buffer_lc();</t>
+  </si>
+  <si>
+    <t>setup_split_lc();</t>
+  </si>
+  <si>
+    <t>100022</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_CONTENTS_2_LC);</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_INCLUDE_LC);</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_MACRO_LC);</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_ADDLINE_LC);</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_CONTENTS_1_LC);</t>
+  </si>
+  <si>
+    <t>check_again_lc();</t>
+  </si>
+  <si>
+    <t>S_IS_COMMENT</t>
+  </si>
+  <si>
+    <t>コメントの確認
+但し、:end以後の場合はコードとして扱う</t>
+  </si>
+  <si>
+    <t>is_comment();</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_COMMENT);</t>
+  </si>
+  <si>
+    <t>100023</t>
+  </si>
+  <si>
+    <t>is_include_lc();</t>
+  </si>
+  <si>
+    <t>S_ESCAPE_TO_CHAR</t>
+  </si>
+  <si>
+    <t>エスケープ文字を変換</t>
+  </si>
+  <si>
+    <t>100025</t>
+  </si>
+  <si>
+    <t>escape_to_char();</t>
+  </si>
+  <si>
+    <t>S_LINESTOBUF_LC</t>
+  </si>
+  <si>
+    <t>ラインリストをバッファに</t>
+  </si>
+  <si>
+    <t>lines_to_buf();</t>
+  </si>
+  <si>
+    <t>br_OK(S_GETLINE_LC);
+br_NG(S_LINESTOBUF_LC);</t>
   </si>
   <si>
     <t xml:space="preserve">/CreateSource/LineConvert/
@@ -615,31 +702,26 @@
 </t>
   </si>
   <si>
-    <t>100013</t>
-  </si>
-  <si>
-    <t>100015</t>
-  </si>
-  <si>
-    <t>100016</t>
-  </si>
-  <si>
-    <t>100017</t>
-  </si>
-  <si>
-    <t>100018</t>
-  </si>
-  <si>
-    <t>100019</t>
-  </si>
-  <si>
-    <t>100020</t>
-  </si>
-  <si>
-    <t>100014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/24 22:37:31
+    <t>100026</t>
+  </si>
+  <si>
+    <t>S_BIND_SRC</t>
+  </si>
+  <si>
+    <t>SRCにバインド</t>
+  </si>
+  <si>
+    <t>bind_src_lc();</t>
+  </si>
+  <si>
+    <t>br_YES(S_SETUP2_LC);
+br_NO(S_BIND_SRC);</t>
+  </si>
+  <si>
+    <t>100027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/25 21:48:19
 ; * pssgEditor version : 0.7.0.2ad44cf1b143dddc32824edf59c45afea3d2c899
 psggfile=@@@
 SourceControl.psgg
@@ -657,7 +739,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Moved a state
+Changed an arrow direction
 @@@
 target_pathdir=@@@
 /CreateSource/LineConvert/
@@ -665,10 +747,10 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":988,"y":76}},{"Key":"S_LOADSETTING","Value":{"x":21,"y":179}},{"Key":"S_SETLANG","Value":{"x":206,"y":176}},{"Key":"S_WRITEHEDDER","Value":{"x":399,"y":181}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":819,"y":186}},{"Key":"S_0001","Value":{"x":618,"y":409}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":205,"y":14}},{"Key":"S_WRITEFILE","Value":{"x":748,"y":237}},{"Key":"S_0001","Value":{"x":277,"y":403}},{"Key":"S_0002","Value":{"x":618,"y":404}},{"Key":"S_CONTENTS1","Value":{"x":73,"y":480}},{"Key":"S_CONTENTS_2","Value":{"x":273,"y":232}},{"Key":"S_CONTENTS_1","Value":{"x":67,"y":232}},{"Key":"S_SETUP_LINECONVERT","Value":{"x":63,"y":400}},{"Key":"S_CHECKCOUNT_LINECONVERT","Value":{"x":277,"y":403}},{"Key":"____altnative_state____LineConvert","Value":{"x":485,"y":234}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_SETUP_LINECONVERT","Value":{"x":40,"y":183}},{"Key":"S_CHECKCOUNT_LINECONVERT","Value":{"x":235,"y":184}},{"Key":"S_WRITEFILE","Value":{"x":623,"y":269}},{"Key":"S_0001","Value":{"x":1373,"y":618}},{"Key":"S_GETLINE_LINECONVERT","Value":{"x":39,"y":611}},{"Key":"S_IS_END_LINECONVERT","Value":{"x":239,"y":609}},{"Key":"S_IS_CONTENTS_1_LINECONVERT","Value":{"x":468,"y":603}},{"Key":"S_IS_CONTENTS_1_LINECONVERT1","Value":{"x":702,"y":596}},{"Key":"S_IS_CONTENTS_1_LINECONVERT2","Value":{"x":961,"y":603}},{"Key":"S_IS_INCLUDE_LINECONVERT","Value":{"x":920,"y":606}},{"Key":"S_IS_INCLUDE_LINECONVERT1","Value":{"x":1199,"y":604}},{"Key":"S_IS_MACRO_LINECONVERT1","Value":{"x":1123,"y":603}},{"Key":"S_NEXT_LINECONVERT","Value":{"x":1387,"y":288}},{"Key":"S_ADDLINE_LINECONVERT","Value":{"x":1373,"y":618}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":36.2353439,"y":553.6471}},{"Key":"S_LOADSETTING","Value":{"x":21,"y":179}},{"Key":"S_SETLANG","Value":{"x":206,"y":176}},{"Key":"S_WRITEHEDDER","Value":{"x":399,"y":181}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}},{"Key":"S_0001","Value":{"x":841.1765,"y":500}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_SETUP_LINECONVERT","Value":{"x":63,"y":400}},{"Key":"S_CHECKCOUNT_LINECONVERT","Value":{"x":277,"y":403}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_SETUP_LINECONVERT","Value":{"x":40,"y":183}},{"Key":"S_CHECKCOUNT_LINECONVERT","Value":{"x":235,"y":184}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_GETLINE_LINECONVERT","Value":{"x":39,"y":611}},{"Key":"S_IS_END_LINECONVERT","Value":{"x":239,"y":609}},{"Key":"S_IS_CONTENTS_1_LINECONVERT","Value":{"x":468,"y":603}},{"Key":"S_IS_CONTENTS_1_LINECONVERT1","Value":{"x":702,"y":596}},{"Key":"S_IS_INCLUDE_LINECONVERT","Value":{"x":920,"y":606}},{"Key":"S_IS_MACRO_LINECONVERT1","Value":{"x":1123,"y":603}},{"Key":"S_NEXT_LINECONVERT","Value":{"x":1387,"y":288}},{"Key":"S_ADDLINE_LINECONVERT","Value":{"x":1376.52942,"y":662.7059}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1387,"y":288}},{"Key":"S_0001","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}}]}]
 @@@
 linecolor_data=@@@
-[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
 @@@
 use_external_command=0
 external_command=@@@
@@ -680,7 +762,7 @@
 test
 @@@
 option_delete_thisstring=0
-option_delete_br_string=0
+option_delete_br_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -1235,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
@@ -1251,7 +1333,7 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1310,8 +1392,26 @@
       <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1">
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1347,37 +1447,55 @@
         <v>49</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="112.5">
+        <v>88</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="7" customFormat="1" ht="112.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -1397,49 +1515,67 @@
         <v>37</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="P3" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1">
+        <v>70</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1450,7 +1586,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:29" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -1479,29 +1615,41 @@
         <v>49</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="11" customFormat="1">
+        <v>86</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -1519,49 +1667,67 @@
         <v>41</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="11" customFormat="1">
+        <v>96</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="37.5">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
@@ -1569,8 +1735,11 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" s="11" customFormat="1">
+      <c r="W8" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -1579,14 +1748,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:22" s="11" customFormat="1">
+    <row r="10" spans="1:29" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1595,7 +1764,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:22" s="11" customFormat="1">
+    <row r="12" spans="1:29" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1604,14 +1773,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:22" s="11" customFormat="1">
+    <row r="13" spans="1:29" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:22" s="11" customFormat="1">
+    <row r="14" spans="1:29" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
@@ -1620,7 +1789,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:22" s="11" customFormat="1">
+    <row r="15" spans="1:29" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1629,14 +1798,14 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:22" s="11" customFormat="1">
+    <row r="16" spans="1:29" s="11" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:22" s="11" customFormat="1">
+    <row r="17" spans="1:29" s="11" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1645,7 +1814,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:22" s="11" customFormat="1">
+    <row r="18" spans="1:29" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -1654,14 +1823,14 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:22" s="11" customFormat="1">
+    <row r="19" spans="1:29" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:22" s="13" customFormat="1" ht="112.5">
+    <row r="20" spans="1:29" s="13" customFormat="1" ht="93.75">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
@@ -1670,25 +1839,31 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="O20" s="13" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="V20" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="15" customFormat="1" ht="18.75" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="X20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC20" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>24</v>
@@ -1697,70 +1872,88 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:22" s="16" customFormat="1"/>
-    <row r="23" spans="1:22" s="16" customFormat="1" ht="75">
+    <row r="22" spans="1:29" s="16" customFormat="1"/>
+    <row r="23" spans="1:29" s="16" customFormat="1" ht="75">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="16" customFormat="1">
+        <v>97</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
@@ -1786,40 +1979,58 @@
         <v>47</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC24" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +2050,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C2AA11-4DA8-4052-A9C8-CA10AE97D217}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9A26D-E507-47C3-AFD2-FB65DDF7660E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
   <si>
     <t>thumbnail</t>
   </si>
@@ -638,14 +638,6 @@
   </si>
   <si>
     <t>br_CONTINUE(S_NEXT_LC);
-br_NOTABOVE(S_IS_MACRO_LC);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LC);
-br_NOTABOVE(S_ADDLINE_LC);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LC);
 br_NOTABOVE(S_IS_CONTENTS_1_LC);</t>
   </si>
   <si>
@@ -721,7 +713,27 @@
     <t>100027</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/25 21:48:19
+    <t>S_SET_CHECKAGAIN</t>
+  </si>
+  <si>
+    <t>再変換要素がある可能性があるので、再チェック依頼</t>
+  </si>
+  <si>
+    <t>set_check_again();</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_SET_CHECKAGAIN);
+br_NOTABOVE(S_IS_MACRO_LC);</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_SET_CHECKAGAIN);
+br_NOTABOVE(S_ADDLINE_LC);</t>
+  </si>
+  <si>
+    <t>100028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/07/26 20:10:44
 ; * pssgEditor version : 0.7.0.2ad44cf1b143dddc32824edf59c45afea3d2c899
 psggfile=@@@
 SourceControl.psgg
@@ -739,7 +751,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Initilized
 @@@
 target_pathdir=@@@
 /CreateSource/LineConvert/
@@ -747,7 +759,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":36.2353439,"y":553.6471}},{"Key":"S_LOADSETTING","Value":{"x":21,"y":179}},{"Key":"S_SETLANG","Value":{"x":206,"y":176}},{"Key":"S_WRITEHEDDER","Value":{"x":399,"y":181}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}},{"Key":"S_0001","Value":{"x":841.1765,"y":500}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_SETUP_LINECONVERT","Value":{"x":63,"y":400}},{"Key":"S_CHECKCOUNT_LINECONVERT","Value":{"x":277,"y":403}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_SETUP_LINECONVERT","Value":{"x":40,"y":183}},{"Key":"S_CHECKCOUNT_LINECONVERT","Value":{"x":235,"y":184}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_GETLINE_LINECONVERT","Value":{"x":39,"y":611}},{"Key":"S_IS_END_LINECONVERT","Value":{"x":239,"y":609}},{"Key":"S_IS_CONTENTS_1_LINECONVERT","Value":{"x":468,"y":603}},{"Key":"S_IS_CONTENTS_1_LINECONVERT1","Value":{"x":702,"y":596}},{"Key":"S_IS_INCLUDE_LINECONVERT","Value":{"x":920,"y":606}},{"Key":"S_IS_MACRO_LINECONVERT1","Value":{"x":1123,"y":603}},{"Key":"S_NEXT_LINECONVERT","Value":{"x":1387,"y":288}},{"Key":"S_ADDLINE_LINECONVERT","Value":{"x":1376.52942,"y":662.7059}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1387,"y":288}},{"Key":"S_0001","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":36.2353439,"y":553.6471}},{"Key":"S_LOADSETTING","Value":{"x":21,"y":179}},{"Key":"S_SETLANG","Value":{"x":206,"y":176}},{"Key":"S_WRITEHEDDER","Value":{"x":399,"y":181}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
@@ -1407,6 +1419,9 @@
       <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1480,16 +1495,19 @@
         <v>102</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>98</v>
@@ -1560,16 +1578,19 @@
         <v>103</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>99</v>
@@ -1639,7 +1660,10 @@
         <v>34</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="11" customFormat="1">
@@ -1694,7 +1718,7 @@
         <v>92</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>93</v>
@@ -1712,19 +1736,22 @@
         <v>105</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="11" customFormat="1" ht="37.5">
@@ -1830,7 +1857,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:29" s="13" customFormat="1" ht="93.75">
+    <row r="20" spans="1:29" s="13" customFormat="1" ht="112.5">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
@@ -1839,7 +1866,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="O20" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>107</v>
@@ -1848,19 +1875,19 @@
         <v>108</v>
       </c>
       <c r="R20" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="S20" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="AC20" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="15" customFormat="1" ht="18.75" customHeight="1">
@@ -1941,13 +1968,16 @@
         <v>97</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="AC23" s="16" t="s">
         <v>97</v>
@@ -2018,16 +2048,19 @@
         <v>106</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="AB24" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="AC24" s="16" t="s">
         <v>100</v>
@@ -2050,7 +2083,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC9A26D-E507-47C3-AFD2-FB65DDF7660E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3222AD-CD72-444F-9436-55787315AD53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
   <si>
     <t>thumbnail</t>
   </si>
@@ -689,11 +689,6 @@
 br_NG(S_LINESTOBUF_LC);</t>
   </si>
   <si>
-    <t xml:space="preserve">/CreateSource/LineConvert/
-(100,100)
-</t>
-  </si>
-  <si>
     <t>100026</t>
   </si>
   <si>
@@ -733,8 +728,15 @@
     <t>100028</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/26 20:10:44
-; * pssgEditor version : 0.7.0.2ad44cf1b143dddc32824edf59c45afea3d2c899
+    <t>need_check_again();</t>
+  </si>
+  <si>
+    <t>br_YES(S_LOADSETTING);
+br_NO(S_SETLANG);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 11:22:11
+; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
 psggfile=@@@
 SourceControl.psgg
 @@@
@@ -751,15 +753,15 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Initilized
+Changed an arrow direction
 @@@
 target_pathdir=@@@
-/CreateSource/LineConvert/
+/
 @@@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":36.2353439,"y":553.6471}},{"Key":"S_LOADSETTING","Value":{"x":21,"y":179}},{"Key":"S_SETLANG","Value":{"x":206,"y":176}},{"Key":"S_WRITEHEDDER","Value":{"x":399,"y":181}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":738.235352,"y":624.6471}},{"Key":"S_LOADSETTING","Value":{"x":30,"y":174}},{"Key":"S_SETLANG","Value":{"x":227,"y":174}},{"Key":"S_WRITEHEDDER","Value":{"x":416,"y":179}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
@@ -1504,10 +1506,10 @@
         <v>117</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>98</v>
@@ -1587,10 +1589,10 @@
         <v>118</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>99</v>
@@ -1618,7 +1620,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>32</v>
@@ -1745,10 +1747,10 @@
         <v>120</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC7" s="11" t="s">
         <v>110</v>
@@ -1832,7 +1834,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:29" s="11" customFormat="1">
+    <row r="17" spans="1:29" s="11" customFormat="1" ht="37.5">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1840,6 +1842,9 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="18" spans="1:29" s="11" customFormat="1">
       <c r="A18" s="10"/>
@@ -1865,6 +1870,9 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
+      <c r="F20" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="O20" s="13" t="s">
         <v>124</v>
       </c>
@@ -1875,10 +1883,10 @@
         <v>108</v>
       </c>
       <c r="R20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="13" t="s">
         <v>135</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>136</v>
       </c>
       <c r="V20" s="13" t="s">
         <v>114</v>
@@ -1887,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="AC20" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:29" s="15" customFormat="1" ht="18.75" customHeight="1">
@@ -1968,16 +1976,16 @@
         <v>97</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="Z23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="AC23" s="16" t="s">
         <v>97</v>
@@ -2051,16 +2059,16 @@
         <v>115</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z24" s="16" t="s">
         <v>119</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC24" s="16" t="s">
         <v>100</v>
@@ -2083,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3222AD-CD72-444F-9436-55787315AD53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF083379-8575-4116-8038-70399C3800E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
   <si>
     <t>thumbnail</t>
   </si>
@@ -735,8 +735,11 @@
 br_NO(S_SETLANG);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 11:22:11
-; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
+    <t>br_isEndForFunc(S_END);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/05 0:09:54
+; * pssgEditor version : 0.8.0.288723737aa620d167d947ece2ef478bd27bb0aa
 psggfile=@@@
 SourceControl.psgg
 @@@
@@ -761,7 +764,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":738.235352,"y":624.6471}},{"Key":"S_LOADSETTING","Value":{"x":30,"y":174}},{"Key":"S_SETLANG","Value":{"x":227,"y":174}},{"Key":"S_WRITEHEDDER","Value":{"x":416,"y":179}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":738.235352,"y":624.6471}},{"Key":"S_LOADSETTING","Value":{"x":30,"y":174}},{"Key":"S_SETLANG","Value":{"x":244,"y":277}},{"Key":"S_WRITEHEDDER","Value":{"x":416,"y":179}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
@@ -777,6 +780,7 @@
 @@@
 option_delete_thisstring=0
 option_delete_br_string=1
+option_delete_bracket_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -1873,6 +1877,9 @@
       <c r="F20" s="13" t="s">
         <v>138</v>
       </c>
+      <c r="G20" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="O20" s="13" t="s">
         <v>124</v>
       </c>
@@ -2091,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3222AD-CD72-444F-9436-55787315AD53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0310746-BF43-4DFE-AFCD-1E8A79511C4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
   <si>
     <t>thumbnail</t>
   </si>
@@ -476,11 +476,6 @@
 This is the root</t>
   </si>
   <si>
-    <t>/CreateSource/
-(608,185)
-ソース生成</t>
-  </si>
-  <si>
     <t>100008</t>
   </si>
   <si>
@@ -735,8 +730,29 @@
 br_NO(S_SETLANG);</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 11:22:11
-; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
+    <t>S_CHECKMODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">選択
+&gt;初期化モード
+&gt;変換モード
+</t>
+  </si>
+  <si>
+    <t>br_INIT(S_LOADSETTING);
+br_CVT(S_WRITEHEDDER);</t>
+  </si>
+  <si>
+    <t>100030</t>
+  </si>
+  <si>
+    <t>/CreateSource/
+(713,750)
+ソース生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/05 9:05:15
+; * pssgEditor version : 0.8.0.no hash because of debug
 psggfile=@@@
 SourceControl.psgg
 @@@
@@ -753,7 +769,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Initilized
 @@@
 target_pathdir=@@@
 /
@@ -761,7 +777,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":41}},{"Key":"S_END","Value":{"x":738.235352,"y":624.6471}},{"Key":"S_LOADSETTING","Value":{"x":30,"y":174}},{"Key":"S_SETLANG","Value":{"x":227,"y":174}},{"Key":"S_WRITEHEDDER","Value":{"x":416,"y":179}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1026.05884,"y":187.176437}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":836.470642,"y":188.23526}},{"Key":"____altnative_state____CreateSource","Value":{"x":608,"y":185}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":956.764648,"y":351.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
@@ -770,6 +786,7 @@
 external_command=@@@
 @@@
 source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
 @@@
 label_show=0
 label_text=@@@
@@ -777,6 +794,7 @@
 @@@
 option_delete_thisstring=0
 option_delete_br_string=1
+option_delete_bracket_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -1331,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
@@ -1347,7 +1365,7 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1427,8 +1445,11 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" s="4" customFormat="1">
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1464,58 +1485,61 @@
         <v>49</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="W2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="7" customFormat="1" ht="112.5">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="7" customFormat="1" ht="112.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -1547,58 +1571,61 @@
         <v>52</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="W3" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="7" customFormat="1">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1609,21 +1636,21 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:29" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:30" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>33</v>
@@ -1638,44 +1665,44 @@
         <v>49</v>
       </c>
       <c r="L5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="U5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="11" customFormat="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -1705,58 +1732,58 @@
         <v>56</v>
       </c>
       <c r="M7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="P7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="W7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="X7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="37.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="11" customFormat="1" ht="37.5">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
@@ -1765,10 +1792,10 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="W8" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="11" customFormat="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -1777,14 +1804,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1">
+    <row r="10" spans="1:30" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1793,7 +1820,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:29" s="11" customFormat="1">
+    <row r="12" spans="1:30" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1802,14 +1829,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:29" s="11" customFormat="1">
+    <row r="13" spans="1:30" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:29" s="11" customFormat="1">
+    <row r="14" spans="1:30" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
@@ -1818,7 +1845,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:29" s="11" customFormat="1">
+    <row r="15" spans="1:30" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1827,14 +1854,14 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:29" s="11" customFormat="1">
+    <row r="16" spans="1:30" s="11" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:29" s="11" customFormat="1" ht="37.5">
+    <row r="17" spans="1:30" s="11" customFormat="1" ht="37.5">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1843,10 +1870,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="11" customFormat="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -1855,14 +1882,14 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:29" s="11" customFormat="1">
+    <row r="19" spans="1:30" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:29" s="13" customFormat="1" ht="112.5">
+    <row r="20" spans="1:30" s="13" customFormat="1" ht="112.5">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
@@ -1871,34 +1898,37 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="R20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>109</v>
-      </c>
       <c r="AC20" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="15" customFormat="1" ht="18.75" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="AD20" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>24</v>
@@ -1907,8 +1937,8 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:29" s="16" customFormat="1"/>
-    <row r="23" spans="1:29" s="16" customFormat="1" ht="75">
+    <row r="22" spans="1:30" s="16" customFormat="1"/>
+    <row r="23" spans="1:30" s="16" customFormat="1" ht="75">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1928,70 +1958,73 @@
         <v>57</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AA23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB23" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC23" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="16" customFormat="1">
+        <v>96</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
@@ -2017,61 +2050,64 @@
         <v>47</v>
       </c>
       <c r="K24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="M24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="O24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" s="16" t="s">
+      <c r="Q24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="R24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="S24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="T24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="U24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="V24" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="V24" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="W24" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC24" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0310746-BF43-4DFE-AFCD-1E8A79511C4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3762751-4FFF-45CA-AA85-79788C594E7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,8 +751,8 @@
 ソース生成</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/05 9:05:15
-; * pssgEditor version : 0.8.0.no hash because of debug
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 21:55:48
+; * pssgEditor version : 0.8.0.d1546247cb700a9ea53021c7cbfdd07d32a034d6
 psggfile=@@@
 SourceControl.psgg
 @@@

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3762751-4FFF-45CA-AA85-79788C594E7A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82B929-0596-467A-8DCE-DB70A0B9F9DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
   <si>
     <t>thumbnail</t>
   </si>
@@ -629,10 +629,6 @@
   </si>
   <si>
     <t>br_CONTINUE(S_NEXT_LC);
-br_NOTABOVE(S_IS_INCLUDE_LC);</t>
-  </si>
-  <si>
-    <t>br_CONTINUE(S_NEXT_LC);
 br_NOTABOVE(S_IS_CONTENTS_1_LC);</t>
   </si>
   <si>
@@ -751,8 +747,28 @@
 ソース生成</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 21:55:48
-; * pssgEditor version : 0.8.0.d1546247cb700a9ea53021c7cbfdd07d32a034d6
+    <t>S_IS_PREFIX</t>
+  </si>
+  <si>
+    <t>$prefix$確認</t>
+  </si>
+  <si>
+    <t>is_prefix_lc();</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_PREFIX);</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_SET_CHECKAGAIN);
+br_NOTABOVE(S_IS_INCLUDE_LC);</t>
+  </si>
+  <si>
+    <t>100031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/01 21:50:35
+; * pssgEditor version : 0.9.18593.fbbe65823b38cbcc955eb1a77e3edfd8ea40c4cb
 psggfile=@@@
 SourceControl.psgg
 @@@
@@ -769,15 +785,15 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Initilized
+Moved a state
 @@@
 target_pathdir=@@@
-/
+/CreateSource/LineConvert/
 @@@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":956.764648,"y":351.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":42.3529358,"y":211.235291}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":444.4118,"y":204.000015}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1175.11743,"y":863.353}},{"Key":"S_IS_MACRO_LC","Value":{"x":1445.17664,"y":880.352966}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.059,"y":214.117737}},{"Key":"S_SETUP2_LC","Value":{"x":234.117676,"y":210.588272}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.000061,"y":216.4706}},{"Key":"S_BIND_SRC","Value":{"x":1103.52942,"y":208.2353}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":979.764648,"y":345.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}},{"Key":"S_0001","Value":{"x":1077,"y":355}},{"Key":"S_READ_SETTING_INI","Value":{"x":1043,"y":483}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45.35295,"y":181.588211}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":445,"y":41}},{"Key":"S_GETLINE_LC","Value":{"x":31.94117,"y":436.882355}},{"Key":"S_IS_END_LC","Value":{"x":215.470581,"y":519.588257}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657.235352,"y":755.647156}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":893.588135,"y":875.706}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1333.94092,"y":1045.706}},{"Key":"S_IS_MACRO_LC","Value":{"x":1548.706,"y":1053.29419}},{"Key":"S_ADDLINE_LC","Value":{"x":1723.41174,"y":810.6471}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":867.6472,"y":51.11772}},{"Key":"S_SETUP2_LC","Value":{"x":250.058838,"y":186.823532}},{"Key":"S_IS_COMMENT","Value":{"x":428.235321,"y":642.353}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":660.588257,"y":53.47058}},{"Key":"S_BIND_SRC","Value":{"x":1104.11768,"y":45.23529}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1395,"y":589}},{"Key":"S_0001","Value":{"x":1116.47058,"y":1060}},{"Key":"S_IS_PREFIX","Value":{"x":1123.52942,"y":1035.29407}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
@@ -792,9 +808,10 @@
 label_text=@@@
 test
 @@@
-option_delete_thisstring=0
+option_delete_thisstring=1
 option_delete_br_string=1
 option_delete_bracket_string=1
+option_delete_s_state_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -1349,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AU24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
@@ -1365,7 +1382,7 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:47" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1448,8 +1465,11 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="4" customFormat="1">
+      <c r="AU1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1518,28 +1538,31 @@
         <v>101</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="7" customFormat="1" ht="112.5">
+        <v>137</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" s="7" customFormat="1" ht="112.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -1604,28 +1627,31 @@
         <v>102</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="7" customFormat="1">
+        <v>138</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1636,14 +1662,14 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:47" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
@@ -1689,20 +1715,20 @@
         <v>34</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="11" customFormat="1">
+    <row r="6" spans="1:47" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:47" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -1747,7 +1773,7 @@
         <v>91</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>92</v>
@@ -1765,25 +1791,28 @@
         <v>104</v>
       </c>
       <c r="X7" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="11" customFormat="1" ht="37.5">
+        <v>108</v>
+      </c>
+      <c r="AU7" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="11" customFormat="1" ht="37.5">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
@@ -1795,7 +1824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="11" customFormat="1">
+    <row r="9" spans="1:47" s="11" customFormat="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -1804,14 +1833,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:30" s="11" customFormat="1">
+    <row r="10" spans="1:47" s="11" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:47" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1820,7 +1849,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:30" s="11" customFormat="1">
+    <row r="12" spans="1:47" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1829,14 +1858,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:30" s="11" customFormat="1">
+    <row r="13" spans="1:47" s="11" customFormat="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:30" s="11" customFormat="1">
+    <row r="14" spans="1:47" s="11" customFormat="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
@@ -1845,7 +1874,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:30" s="11" customFormat="1">
+    <row r="15" spans="1:47" s="11" customFormat="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1854,14 +1883,14 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:30" s="11" customFormat="1">
+    <row r="16" spans="1:47" s="11" customFormat="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" ht="37.5">
+    <row r="17" spans="1:47" s="11" customFormat="1" ht="37.5">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1870,10 +1899,10 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" s="11" customFormat="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" s="11" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -1882,14 +1911,14 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:30" s="11" customFormat="1">
+    <row r="19" spans="1:47" s="11" customFormat="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:30" s="13" customFormat="1" ht="112.5">
+    <row r="20" spans="1:47" s="13" customFormat="1" ht="112.5">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
@@ -1898,37 +1927,40 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P20" s="13" t="s">
         <v>106</v>
       </c>
       <c r="Q20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="AC20" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" s="15" customFormat="1" ht="18.75" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="AU20" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>24</v>
@@ -1937,8 +1969,8 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:30" s="16" customFormat="1"/>
-    <row r="23" spans="1:30" s="16" customFormat="1" ht="75">
+    <row r="22" spans="1:47" s="16" customFormat="1"/>
+    <row r="23" spans="1:47" s="16" customFormat="1" ht="75">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1958,16 +1990,16 @@
         <v>57</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>96</v>
@@ -2023,8 +2055,11 @@
       <c r="AD23" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" s="16" customFormat="1">
+      <c r="AU23" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" s="16" customFormat="1">
       <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
@@ -2089,25 +2124,28 @@
         <v>105</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA24" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB24" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC24" s="16" t="s">
         <v>99</v>
       </c>
       <c r="AD24" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="AU24" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2165,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82B929-0596-467A-8DCE-DB70A0B9F9DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="true"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68E619-B32B-4B6C-BD18-274534D321ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="6" r:id="rId2"/>
-    <sheet name="setting.ini" sheetId="5" r:id="rId3"/>
-    <sheet name="help" sheetId="4" r:id="rId4"/>
-    <sheet name="template-statefunc" sheetId="3" r:id="rId5"/>
-    <sheet name="template-source" sheetId="2" r:id="rId6"/>
+    <sheet name="help" sheetId="15" r:id="rId19"/>
+    <sheet name="setting.ini" sheetId="14" r:id="rId18"/>
+    <sheet name="template-statefunc" sheetId="13" r:id="rId17"/>
+    <sheet name="template-source" sheetId="12" r:id="rId16"/>
+    <sheet name="config" sheetId="11" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
   <si>
     <t>thumbnail</t>
   </si>
@@ -821,6 +822,630 @@
 comment_block_height=45
 line_space=-1
 </t>
+  </si>
+  <si>
+    <t>!pos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S_IS_REGEX_LC</t>
+  </si>
+  <si>
+    <t>正規表現コンテンツ確認</t>
+  </si>
+  <si>
+    <t>is_regex_contents_lc();</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_REGEX_LC);</t>
+  </si>
+  <si>
+    <t>32,437</t>
+  </si>
+  <si>
+    <t>45,182</t>
+  </si>
+  <si>
+    <t>445,41</t>
+  </si>
+  <si>
+    <t>657,756</t>
+  </si>
+  <si>
+    <t>894,876</t>
+  </si>
+  <si>
+    <t>1565,1052</t>
+  </si>
+  <si>
+    <t>1780,1059</t>
+  </si>
+  <si>
+    <t>1598,229</t>
+  </si>
+  <si>
+    <t>1954,817</t>
+  </si>
+  <si>
+    <t>215,520</t>
+  </si>
+  <si>
+    <t>250,187</t>
+  </si>
+  <si>
+    <t>428,642</t>
+  </si>
+  <si>
+    <t>661,53</t>
+  </si>
+  <si>
+    <t>1104,45</t>
+  </si>
+  <si>
+    <t>1626,595</t>
+  </si>
+  <si>
+    <t>868,51</t>
+  </si>
+  <si>
+    <t>1108,1012</t>
+  </si>
+  <si>
+    <t>1355,1041</t>
+  </si>
+  <si>
+    <t>100032</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 13:59:54
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/CreateSource/LineConvert/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":979.764648,"y":345.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":445,"y":41}},{"Key":"S_GETLINE_LC","Value":{"x":32,"y":437}},{"Key":"S_IS_END_LC","Value":{"x":215,"y":520}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657,"y":756}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":894,"y":876}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1565,"y":1052}},{"Key":"S_IS_MACRO_LC","Value":{"x":1780,"y":1059}},{"Key":"S_ADDLINE_LC","Value":{"x":1954,"y":817}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":868,"y":51}},{"Key":"S_SETUP2_LC","Value":{"x":250,"y":187}},{"Key":"S_IS_COMMENT","Value":{"x":428,"y":642}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":661,"y":53}},{"Key":"S_BIND_SRC","Value":{"x":1104,"y":45}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1626,"y":595}},{"Key":"S_IS_PREFIX","Value":{"x":1355,"y":1041}},{"Key":"S_IS_CONTENTS_2_LC1","Value":{"x":1089,"y":1148}},{"Key":"S_IS_REGEX_LC","Value":{"x":1108,"y":1012}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=SourceControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class SourceControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=SourceControl.psgg
+xls=SourceControl.xlsx
+sub_src=SourceControl.cs
+gen_src=SourceControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Source
+xlsdir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+gendir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+genrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルを作成します。
+      SourceControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      SourceControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルが作成されます。
+      SourceControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     SourceControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  File:
+      SourceControl.pssg  --- PSSG Editor opens the below excel file.
+      SourceControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+　File:
+      SourceControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      SourceControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 14:19:13
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/CreateSource/LineConvert/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":979.764648,"y":345.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":445,"y":41}},{"Key":"S_GETLINE_LC","Value":{"x":32,"y":437}},{"Key":"S_IS_END_LC","Value":{"x":215,"y":520}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657,"y":756}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":894,"y":876}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1565,"y":1052}},{"Key":"S_IS_MACRO_LC","Value":{"x":1780,"y":1059}},{"Key":"S_ADDLINE_LC","Value":{"x":1954,"y":817}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":868,"y":51}},{"Key":"S_SETUP2_LC","Value":{"x":250,"y":187}},{"Key":"S_IS_COMMENT","Value":{"x":428,"y":642}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":661,"y":53}},{"Key":"S_BIND_SRC","Value":{"x":1104,"y":45}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1626,"y":595}},{"Key":"S_IS_PREFIX","Value":{"x":1355,"y":1041}},{"Key":"S_IS_CONTENTS_2_LC1","Value":{"x":1089,"y":1148}},{"Key":"S_IS_REGEX_LC","Value":{"x":1108,"y":1012}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>:output=SourceControl_created.cs
+::tempfunc=template-func.txt
+:enc=utf-8
+::
+public partial class SourceControl : StateManager {
+    public void Start()
+    {
+        Goto(S_START);
+    }
+    $contents2$
+}
+</t>
+  </si>
+  <si>
+    <t>/*
+    [[state]]
+    [[state-cmt]]
+*/
+void [[state]](bool bFirst)
+{
+    if (bFirst)
+    {
+        [[init]]
+    }
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if (![[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+    [[branch]]
+    &lt;&lt;&lt;?nextstate        
+    if (!HasNextState())
+    {
+        SetNextState([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    if (HasNextState())
+    {
+        &lt;&lt;&lt;?nowait
+            NoWait();
+        &gt;&gt;&gt;
+        GoNextState();
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>[setting]
+converter=psggConverterLib.dll
+psgg=SourceControl.psgg
+xls=SourceControl.xlsx
+sub_src=SourceControl.cs
+gen_src=SourceControl_created.cs
+manager_src=StateManager.cs
+manager_dir=base
+template_src=template-source.txt
+template_func=template-statefunc.txt
+help=help.ini
+[setupinfo]
+lang=c#
+framework=
+prefix=Source
+xlsdir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+gendir=C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+genrdir=.
+[jpn]
+title=C# サンプル 1
+detail=@@@
+C# 用のステートマシンを作成します。
+# ドキュメント用フォルダ
+   ステート図ファイルとEditor起動用ショートカットを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルを作成します。
+      SourceControl.pssg   --- PSSG Editorで次のエクセルファイルを開く。
+      SourceControl.xlsx   --- ステート図格納用Excelファイル。PSSG Editorが編集。
+# ソース用フォルダ　
+　PSSG Editorが生成ソースファイル、ユーザ実装ソースファイル、及び管理クラスファイルを格納
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  以下のファイルが作成されます。
+      SourceControl_created.cs  --- Excelファイルからの変換ソースコード。変換プロセスの度に上書きされる。
+                                        ※生成直後は関数なしのクラス定義のみ
+     SourceControl.cs          --- ユーザ実装用　（ここにプログラムを書く！）
+                                        ※生成直後は関数なしのクラス定義のみ
+# 共通管理クラスファイル
+　以下に作成されます。
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs
+注意 : 既に同名のファイルがある場合は生成されません。
+　　　 削除してから生成してください。
+記 2018.7.7
+@@@
+[en]
+title=C# Sample 1
+detail=@@@
+This dialog will create files for a state machine.
+# Document Folder 
+　This folder will contain a state chart file and the shortcut of the editor.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+  File:
+      SourceControl.pssg  --- PSSG Editor opens the below excel file.
+      SourceControl.xlsx  --- Excel File that has a state chart. PSSG Editor edits this file.
+# Source Folder 
+   This folder will contain a source file generated by PSSG Editor, a user implemetation source file, and a manager source file.
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm
+　File:
+      SourceControl_created.cs   -- PSSG Editor will convert from the excel file to this file. This file will overwriten whenever using the converting process of PSSG Editor.
+                                        * The file has only a class define without methods immediately after this creation.
+      SourceControl.cs　　　　　 -- For implementation. (You have to write program in this file!!)
+                                        * The file has only class define without methods immediately after this creation. 
+# Common State Manager Class File
+  File:
+      C:\Users\gea01\Documents\psgg\psgg-converter\psggConverter\psggConverterLib\sm/base/StateManager.cs 
+NOTE : If the same name files exists, the file will not be created.
+       Please delete the same name files ahead of the creation.
+Wrote 2018.7.7
+@@@
+</t>
+  </si>
+  <si>
+    <t>; -----
+; 項目説明
+; -----
+[state]
+jpn=@@@
+ステート名を指定する。
+英文字、数字、アンダーバーで構成される。
+先頭は英文字およびアンダーバー。
+@@@
+en=@@@
+Specify a state name.
+The state name consits of alphabet, number and underbar except that the head characther should be alphabet or a underbar.
+@@@
+[thumbnail]
+jpn=@@@
+説明用のイメージを指定する。
+@@@
+en=@@@
+Specify a image for explanation of this state.
+@@@
+[init]
+jpn=@@@
+初期化用処理を指定する。
+@@@
+en=@@@
+Specify a initial process.
+@@@
+[update]
+jpn=@@@
+更新処理を指定する。
+@@@
+en=@@@
+Specify a update process.
+@@@
+[wait]
+jpn=@@@
+待ち条件を指定する。
+true時にループを解除する。
+@@@
+en=@@@
+Specify a waiting condition.
+Release the loop if the condition is true.
+@@@
+[post_wait]
+jpn=@@@
+'wait'後の処理を指定する。
+@@@
+en=@@@
+Specify the post process after 'wait'.
+@@@
+[branch]
+jpn=@@@
+分岐処理を指定する。
+１行に一つの分岐命令を書く。
+GUIにより上書きされるため引数は適当に指定する。
+例）
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+en=@@@
+Specify branch functions.
+Each line has a branch function.
+Specify a tentavie parameter for each branch function because GUI overwrites the parameter.
+i.e)
+br_YES(?);
+br_NO(?);
+br_UNKNOWN(?);
+@@@
+[nextstate]
+jpn=@@@
+次に実行するステートを指定する。
+@@@
+en=@@@
+Specify the next state to be executed.
+@@@
+[nowait]
+jpn=@@@
+次のステートへ同期待ちをせず実行する時に 'yes'を指定する。
+同期待ち時には何も指定しない。
+@@@
+en=@@@
+Specify 'yes' if the next state will be execute without a sync wait.
+Do not specify any word wheh the next state will be execute with a sync wait.
+@@@
+[!dir]
+jpn=@@@
+システムがステートのディレクトリ指定に使用。
+@@@
+en=@@@
+System uses this for the directory path of the state.
+@@@
+[!uuid]
+jpn=@@@
+システムがステートのuuid指定に使用。
+@@@
+en=@@@
+System uses this for the uuid of the state.
+@@@</t>
   </si>
 </sst>
 </file>
@@ -901,13 +1526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -923,43 +1548,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.39994506668294"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,80 +1630,80 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="6" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment shrinkToFit="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="5" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1366,23 +1991,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU24"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="15.625" style="17"/>
-    <col min="3" max="3" width="26.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="17" customWidth="true"/>
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" s="2" customFormat="true" ht="144.75" customHeight="true">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1465,11 +2090,14 @@
       <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="4" customFormat="1">
+    <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1558,11 +2186,14 @@
       <c r="AD2" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="AE2" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="AU2" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:47" s="7" customFormat="1" ht="112.5">
+    <row r="3" s="7" customFormat="true" ht="112.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>10</v>
@@ -1647,11 +2278,14 @@
       <c r="AD3" s="7" t="s">
         <v>138</v>
       </c>
+      <c r="AE3" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="AU3" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="7" customFormat="1">
+    <row r="4" s="7" customFormat="true">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1662,7 +2296,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:47" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>14</v>
@@ -1721,14 +2355,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:47" s="11" customFormat="1">
+    <row r="6" s="11" customFormat="true">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:47" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -1808,11 +2442,14 @@
       <c r="AC7" s="11" t="s">
         <v>108</v>
       </c>
+      <c r="AE7" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="AU7" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:47" s="11" customFormat="1" ht="37.5">
+    <row r="8" s="11" customFormat="true" ht="37.5">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>16</v>
@@ -1824,7 +2461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:47" s="11" customFormat="1">
+    <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>17</v>
@@ -1833,14 +2470,14 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:47" s="11" customFormat="1">
+    <row r="10" s="11" customFormat="true">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:47" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>18</v>
@@ -1849,7 +2486,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:47" s="11" customFormat="1">
+    <row r="12" s="11" customFormat="true">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -1858,14 +2495,14 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:47" s="11" customFormat="1">
+    <row r="13" s="11" customFormat="true">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:47" s="11" customFormat="1">
+    <row r="14" s="11" customFormat="true">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>20</v>
@@ -1874,7 +2511,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:47" s="11" customFormat="1">
+    <row r="15" s="11" customFormat="true">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -1883,14 +2520,14 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:47" s="11" customFormat="1">
+    <row r="16" s="11" customFormat="true">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:47" s="11" customFormat="1" ht="37.5">
+    <row r="17" s="11" customFormat="true" ht="37.5">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
@@ -1902,7 +2539,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:47" s="11" customFormat="1">
+    <row r="18" s="11" customFormat="true">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>22</v>
@@ -1911,14 +2548,14 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:47" s="11" customFormat="1">
+    <row r="19" s="11" customFormat="true">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:47" s="13" customFormat="1" ht="112.5">
+    <row r="20" s="13" customFormat="true" ht="112.5">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
         <v>23</v>
@@ -1936,7 +2573,7 @@
         <v>106</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>132</v>
@@ -1956,11 +2593,14 @@
       <c r="AD20" s="13" t="s">
         <v>139</v>
       </c>
+      <c r="AE20" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="AU20" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:47" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" s="15" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="14"/>
       <c r="B21" s="14" t="s">
         <v>24</v>
@@ -1969,8 +2609,8 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:47" s="16" customFormat="1"/>
-    <row r="23" spans="1:47" s="16" customFormat="1" ht="75">
+    <row r="22" s="16" customFormat="true"/>
+    <row r="23" s="16" customFormat="true" ht="75">
       <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
@@ -2055,96 +2695,161 @@
       <c r="AD23" s="16" t="s">
         <v>57</v>
       </c>
+      <c r="AE23" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="AU23" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:47" s="16" customFormat="1">
+    <row r="24" s="16" customFormat="true">
       <c r="B24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="W24" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y24" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA24" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC24" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU24" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="true">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I25" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R25" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="U25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="V24" s="16" t="s">
+      <c r="V25" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="W24" s="16" t="s">
+      <c r="W25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="X25" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="Y25" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z25" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AA24" s="16" t="s">
+      <c r="AA25" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="AB24" s="16" t="s">
+      <c r="AB25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="AC24" s="16" t="s">
+      <c r="AC25" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AD24" s="16" t="s">
+      <c r="AD25" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AU24" s="16" t="s">
+      <c r="AE25" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU25" s="16" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2155,99 +2860,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029A4AD5-5912-49B5-A721-2E2E1CC5C978}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>148</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4BFD84-C9C0-444B-B85F-F7A6CEEA8C8D}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF74A41-ABD6-4350-94C7-DA8A7A6EEB6D}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4BD0AE-460E-424E-99F7-88E7DEDD3553}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0646FD-2F1D-4E93-9457-54E0FAB94C34}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5">
-      <c r="A1" s="18" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="15" r:id="rId19"/>
-    <sheet name="setting.ini" sheetId="14" r:id="rId18"/>
-    <sheet name="template-statefunc" sheetId="13" r:id="rId17"/>
-    <sheet name="template-source" sheetId="12" r:id="rId16"/>
-    <sheet name="config" sheetId="11" r:id="rId15"/>
+    <sheet name="help" sheetId="25" r:id="rId29"/>
+    <sheet name="setting.ini" sheetId="24" r:id="rId28"/>
+    <sheet name="template-statefunc" sheetId="23" r:id="rId27"/>
+    <sheet name="template-source" sheetId="22" r:id="rId26"/>
+    <sheet name="config" sheetId="21" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="194">
   <si>
     <t>thumbnail</t>
   </si>
@@ -1446,6 +1446,146 @@
 en=@@@
 System uses this for the uuid of the state.
 @@@</t>
+  </si>
+  <si>
+    <t>S_IS_REGEX2_LC</t>
+  </si>
+  <si>
+    <t>正規表現コンテンツ確認②</t>
+  </si>
+  <si>
+    <t>is_regex_contents2_lc();</t>
+  </si>
+  <si>
+    <t>br_CONTINUE(S_NEXT_LC);
+br_NOTABOVE(S_IS_REGEX2_LC);</t>
+  </si>
+  <si>
+    <t>1767,1297</t>
+  </si>
+  <si>
+    <t>1982,1304</t>
+  </si>
+  <si>
+    <t>1318,1153</t>
+  </si>
+  <si>
+    <t>1557,1286</t>
+  </si>
+  <si>
+    <t>100033</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 17:48:53
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/CreateSource/LineConvert/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":979.764648,"y":345.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":445,"y":41}},{"Key":"S_GETLINE_LC","Value":{"x":32,"y":437}},{"Key":"S_IS_END_LC","Value":{"x":215,"y":520}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657,"y":756}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":894,"y":876}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1767,"y":1297}},{"Key":"S_IS_MACRO_LC","Value":{"x":1982,"y":1304}},{"Key":"S_ADDLINE_LC","Value":{"x":1954,"y":817}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":868,"y":51}},{"Key":"S_SETUP2_LC","Value":{"x":250,"y":187}},{"Key":"S_IS_COMMENT","Value":{"x":428,"y":642}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":661,"y":53}},{"Key":"S_BIND_SRC","Value":{"x":1104,"y":45}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1626,"y":595}},{"Key":"S_IS_PREFIX","Value":{"x":1557,"y":1286}},{"Key":"S_IS_REGEX_LC","Value":{"x":1108,"y":1012}},{"Key":"S_IS_REGEX_LC1","Value":{"x":1301,"y":1117}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1318,"y":1153}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/22 19:30:14
+; * pssgEditor version : 0.10.30931.586cb2eeaabeaad17d3ed86566210c375fc4ffb7
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/CreateSource/LineConvert/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":979.764648,"y":345.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":445,"y":41}},{"Key":"S_GETLINE_LC","Value":{"x":32,"y":437}},{"Key":"S_IS_END_LC","Value":{"x":215,"y":520}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657,"y":756}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":894,"y":876}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1767,"y":1297}},{"Key":"S_IS_MACRO_LC","Value":{"x":1982,"y":1304}},{"Key":"S_ADDLINE_LC","Value":{"x":1954,"y":817}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":868,"y":51}},{"Key":"S_SETUP2_LC","Value":{"x":250,"y":187}},{"Key":"S_IS_COMMENT","Value":{"x":428,"y":642}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":661,"y":53}},{"Key":"S_BIND_SRC","Value":{"x":1104,"y":45}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1626,"y":595}},{"Key":"S_IS_PREFIX","Value":{"x":1557,"y":1286}},{"Key":"S_IS_REGEX_LC","Value":{"x":1108,"y":1012}},{"Key":"S_IS_REGEX_LC1","Value":{"x":1301,"y":1117}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1318,"y":1153}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
   </si>
 </sst>
 </file>
@@ -2093,6 +2233,9 @@
       <c r="AE1" s="17" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2189,6 +2332,9 @@
       <c r="AE2" s="17" t="s">
         <v>150</v>
       </c>
+      <c r="AF2" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="AU2" s="4" t="s">
         <v>142</v>
       </c>
@@ -2280,6 +2426,9 @@
       </c>
       <c r="AE3" s="17" t="s">
         <v>151</v>
+      </c>
+      <c r="AF3" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="AU3" s="7" t="s">
         <v>143</v>
@@ -2444,6 +2593,9 @@
       </c>
       <c r="AE7" s="17" t="s">
         <v>152</v>
+      </c>
+      <c r="AF7" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="AU7" s="11" t="s">
         <v>144</v>
@@ -2594,6 +2746,9 @@
         <v>139</v>
       </c>
       <c r="AE20" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF20" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AU20" s="13" t="s">
@@ -2698,6 +2853,9 @@
       <c r="AE23" s="17" t="s">
         <v>96</v>
       </c>
+      <c r="AF23" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="AU23" s="16" t="s">
         <v>96</v>
       </c>
@@ -2722,10 +2880,10 @@
         <v>158</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>161</v>
@@ -2757,8 +2915,11 @@
       <c r="AE24" s="17" t="s">
         <v>170</v>
       </c>
+      <c r="AF24" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="AU24" s="17" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" s="16" customFormat="true">
@@ -2848,6 +3009,9 @@
       </c>
       <c r="AE25" s="17" t="s">
         <v>172</v>
+      </c>
+      <c r="AF25" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="AU25" s="16" t="s">
         <v>147</v>
@@ -2860,21 +3024,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2888,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2902,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2916,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -9,11 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="help" sheetId="25" r:id="rId29"/>
-    <sheet name="setting.ini" sheetId="24" r:id="rId28"/>
-    <sheet name="template-statefunc" sheetId="23" r:id="rId27"/>
-    <sheet name="template-source" sheetId="22" r:id="rId26"/>
-    <sheet name="config" sheetId="21" r:id="rId25"/>
+    <sheet name="help" sheetId="45" r:id="rId49"/>
+    <sheet name="setting.ini" sheetId="44" r:id="rId48"/>
+    <sheet name="template-statefunc" sheetId="43" r:id="rId47"/>
+    <sheet name="template-source" sheetId="42" r:id="rId46"/>
+    <sheet name="config" sheetId="41" r:id="rId45"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="253">
   <si>
     <t>thumbnail</t>
   </si>
@@ -1559,6 +1559,402 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":39,"y":459.8824}},{"Key":"S_END","Value":{"x":1358.03931,"y":398.76474}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":979.764648,"y":345.7647}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123.05884,"y":756.176453}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933.470642,"y":757.2352}},{"Key":"S_CHECKMODE","Value":{"x":245.647034,"y":448}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":37.94117,"y":202.235321}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":396.529419,"y":375.529419}},{"Key":"S_CONTENTS_1","Value":{"x":185.823532,"y":373.176483}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":445,"y":41}},{"Key":"S_GETLINE_LC","Value":{"x":32,"y":437}},{"Key":"S_IS_END_LC","Value":{"x":215,"y":520}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":657,"y":756}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":894,"y":876}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1767,"y":1297}},{"Key":"S_IS_MACRO_LC","Value":{"x":1982,"y":1304}},{"Key":"S_ADDLINE_LC","Value":{"x":1954,"y":817}},{"Key":"S_NEXT_LC","Value":{"x":1598,"y":229}},{"Key":"S_CHECK_AGAIN","Value":{"x":868,"y":51}},{"Key":"S_SETUP2_LC","Value":{"x":250,"y":187}},{"Key":"S_IS_COMMENT","Value":{"x":428,"y":642}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1362.00012,"y":89.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":661,"y":53}},{"Key":"S_BIND_SRC","Value":{"x":1104,"y":45}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1626,"y":595}},{"Key":"S_IS_PREFIX","Value":{"x":1557,"y":1286}},{"Key":"S_IS_REGEX_LC","Value":{"x":1108,"y":1012}},{"Key":"S_IS_REGEX_LC1","Value":{"x":1301,"y":1117}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1318,"y":1153}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>S_USE_G_TEMPLSRC</t>
+  </si>
+  <si>
+    <t>S_USE_INSERT_TEMP</t>
+  </si>
+  <si>
+    <t>チェックモード
+</t>
+  </si>
+  <si>
+    <t>setup_buffer_lc_insert();</t>
+  </si>
+  <si>
+    <t>br_CVT(S_USE_G_TEMPLSRC);
+br_INSERT(S_USE_INSERT_TEMP);</t>
+  </si>
+  <si>
+    <t>br_INIT(S_LOADSETTING);
+br_CVT(S_WRITEHEDDER);
+br_INSERT(S_WRITEHEDDER);</t>
+  </si>
+  <si>
+    <t>38,469</t>
+  </si>
+  <si>
+    <t>1358,399</t>
+  </si>
+  <si>
+    <t>623,237</t>
+  </si>
+  <si>
+    <t>980,346</t>
+  </si>
+  <si>
+    <t>489,747</t>
+  </si>
+  <si>
+    <t>38,202</t>
+  </si>
+  <si>
+    <t>1123,756</t>
+  </si>
+  <si>
+    <t>186,373</t>
+  </si>
+  <si>
+    <t>397,376</t>
+  </si>
+  <si>
+    <t>160,470</t>
+  </si>
+  <si>
+    <t>620,32</t>
+  </si>
+  <si>
+    <t>832,747</t>
+  </si>
+  <si>
+    <t>1069,867</t>
+  </si>
+  <si>
+    <t>1942,1288</t>
+  </si>
+  <si>
+    <t>2157,1295</t>
+  </si>
+  <si>
+    <t>1773,220</t>
+  </si>
+  <si>
+    <t>2129,808</t>
+  </si>
+  <si>
+    <t>390,511</t>
+  </si>
+  <si>
+    <t>449,147</t>
+  </si>
+  <si>
+    <t>603,633</t>
+  </si>
+  <si>
+    <t>836,44</t>
+  </si>
+  <si>
+    <t>933,757</t>
+  </si>
+  <si>
+    <t>1279,36</t>
+  </si>
+  <si>
+    <t>1801,586</t>
+  </si>
+  <si>
+    <t>1043,42</t>
+  </si>
+  <si>
+    <t>246,448</t>
+  </si>
+  <si>
+    <t>1283,1003</t>
+  </si>
+  <si>
+    <t>1493,1144</t>
+  </si>
+  <si>
+    <t>259,79</t>
+  </si>
+  <si>
+    <t>252,228</t>
+  </si>
+  <si>
+    <t>1732,1277</t>
+  </si>
+  <si>
+    <t>100034</t>
+  </si>
+  <si>
+    <t>100035</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 13:36:32
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/CreateSource/LineConvert/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":469}},{"Key":"S_END","Value":{"x":1358,"y":399}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":980,"y":346}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1123,"y":756}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933,"y":757}},{"Key":"S_CHECKMODE","Value":{"x":246,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":38,"y":202}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":397,"y":376}},{"Key":"S_CONTENTS_1","Value":{"x":186,"y":373}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":620,"y":32}},{"Key":"S_GETLINE_LC","Value":{"x":160,"y":470}},{"Key":"S_IS_END_LC","Value":{"x":390,"y":511}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":832,"y":747}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":1069,"y":867}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1942,"y":1288}},{"Key":"S_IS_MACRO_LC","Value":{"x":2157,"y":1295}},{"Key":"S_ADDLINE_LC","Value":{"x":2129,"y":808}},{"Key":"S_NEXT_LC","Value":{"x":1773,"y":220}},{"Key":"S_CHECK_AGAIN","Value":{"x":1043,"y":42}},{"Key":"S_SETUP2_LC","Value":{"x":449,"y":147}},{"Key":"S_IS_COMMENT","Value":{"x":603,"y":633}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1537.00012,"y":80.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":836,"y":44}},{"Key":"S_BIND_SRC","Value":{"x":1279,"y":36}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1801,"y":586}},{"Key":"S_IS_PREFIX","Value":{"x":1732,"y":1277}},{"Key":"S_IS_REGEX_LC","Value":{"x":1283,"y":1003}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1493,"y":1144}},{"Key":"S_SETUP_LC1","Value":{"x":259,"y":79}},{"Key":"S_SETUP_LC2","Value":{"x":249,"y":230}},{"Key":"S_USE_G_TEMPLSRC","Value":{"x":259,"y":79}},{"Key":"S_USE_INSERT_TEMP","Value":{"x":252,"y":228}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>S_OUTPUTCHECK</t>
+  </si>
+  <si>
+    <t>S_OUTPUT_INSERTBUF</t>
+  </si>
+  <si>
+    <t>モード別に出力を変える</t>
+  </si>
+  <si>
+    <t>インサートバッファへ</t>
+  </si>
+  <si>
+    <t>write_insertbuf();</t>
+  </si>
+  <si>
+    <t>br_CVT(S_WRITEFILE);
+br_INSERT(S_OUTPUT_INSERTBUF);</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>1693,494</t>
+  </si>
+  <si>
+    <t>1357,757</t>
+  </si>
+  <si>
+    <t>1121,776</t>
+  </si>
+  <si>
+    <t>1366,910</t>
+  </si>
+  <si>
+    <t>100037</t>
+  </si>
+  <si>
+    <t>100039</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 13:40:09
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":469}},{"Key":"S_END","Value":{"x":1693,"y":494}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":980,"y":346}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1357,"y":757}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933,"y":757}},{"Key":"S_CHECKMODE","Value":{"x":246,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}},{"Key":"S_WRITEFILE1","Value":{"x":1166,"y":855}},{"Key":"S_OUTPUTCHECK","Value":{"x":1121,"y":776}},{"Key":"S_OUTPUTCHECK1","Value":{"x":1359,"y":937}},{"Key":"S_OUTPUT_INSERTBUF","Value":{"x":1366,"y":910}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":38,"y":202}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":397,"y":376}},{"Key":"S_CONTENTS_1","Value":{"x":186,"y":373}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":620,"y":32}},{"Key":"S_GETLINE_LC","Value":{"x":160,"y":470}},{"Key":"S_IS_END_LC","Value":{"x":390,"y":511}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":832,"y":747}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":1069,"y":867}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1942,"y":1288}},{"Key":"S_IS_MACRO_LC","Value":{"x":2157,"y":1295}},{"Key":"S_ADDLINE_LC","Value":{"x":2129,"y":808}},{"Key":"S_NEXT_LC","Value":{"x":1773,"y":220}},{"Key":"S_CHECK_AGAIN","Value":{"x":1043,"y":42}},{"Key":"S_SETUP2_LC","Value":{"x":449,"y":147}},{"Key":"S_IS_COMMENT","Value":{"x":603,"y":633}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1537.00012,"y":80.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":836,"y":44}},{"Key":"S_BIND_SRC","Value":{"x":1279,"y":36}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1801,"y":586}},{"Key":"S_IS_PREFIX","Value":{"x":1732,"y":1277}},{"Key":"S_IS_REGEX_LC","Value":{"x":1283,"y":1003}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1493,"y":1144}},{"Key":"S_SETUP_LC1","Value":{"x":259,"y":79}},{"Key":"S_SETUP_LC2","Value":{"x":249,"y":230}},{"Key":"S_USE_G_TEMPLSRC","Value":{"x":259,"y":79}},{"Key":"S_USE_INSERT_TEMP","Value":{"x":252,"y":228}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 13:43:16
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":469}},{"Key":"S_END","Value":{"x":1693,"y":494}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":980,"y":346}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1357,"y":757}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":933,"y":757}},{"Key":"S_CHECKMODE","Value":{"x":246,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}},{"Key":"S_WRITEFILE1","Value":{"x":1166,"y":855}},{"Key":"S_OUTPUTCHECK","Value":{"x":1121,"y":776}},{"Key":"S_OUTPUTCHECK1","Value":{"x":1359,"y":937}},{"Key":"S_OUTPUT_INSERTBUF","Value":{"x":1366,"y":910}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":38,"y":202}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":397,"y":376}},{"Key":"S_CONTENTS_1","Value":{"x":186,"y":373}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":620,"y":32}},{"Key":"S_GETLINE_LC","Value":{"x":160,"y":470}},{"Key":"S_IS_END_LC","Value":{"x":390,"y":511}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":832,"y":747}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":1069,"y":867}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1942,"y":1288}},{"Key":"S_IS_MACRO_LC","Value":{"x":2157,"y":1295}},{"Key":"S_ADDLINE_LC","Value":{"x":2129,"y":808}},{"Key":"S_NEXT_LC","Value":{"x":1773,"y":220}},{"Key":"S_CHECK_AGAIN","Value":{"x":1043,"y":42}},{"Key":"S_SETUP2_LC","Value":{"x":449,"y":147}},{"Key":"S_IS_COMMENT","Value":{"x":603,"y":633}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1537.00012,"y":80.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":836,"y":44}},{"Key":"S_BIND_SRC","Value":{"x":1279,"y":36}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1801,"y":586}},{"Key":"S_IS_PREFIX","Value":{"x":1732,"y":1277}},{"Key":"S_IS_REGEX_LC","Value":{"x":1283,"y":1003}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1493,"y":1144}},{"Key":"S_SETUP_LC1","Value":{"x":259,"y":79}},{"Key":"S_SETUP_LC2","Value":{"x":249,"y":230}},{"Key":"S_USE_G_TEMPLSRC","Value":{"x":259,"y":79}},{"Key":"S_USE_INSERT_TEMP","Value":{"x":252,"y":228}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
+  </si>
+  <si>
+    <t>915,751</t>
+  </si>
+  <si>
+    <t>1119,759</t>
+  </si>
+  <si>
+    <t>1356,910</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2018/09/25 13:43:50
+; * pssgEditor version : 0.10.34244.2fa04cfc4acd13b6a22da40fe6831f1e132eccb9
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":469}},{"Key":"S_END","Value":{"x":1693,"y":494}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":980,"y":346}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1357,"y":757}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":915,"y":751}},{"Key":"S_CHECKMODE","Value":{"x":246,"y":448}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}},{"Key":"S_WRITEFILE1","Value":{"x":1166,"y":855}},{"Key":"S_OUTPUTCHECK","Value":{"x":1119,"y":759}},{"Key":"S_OUTPUTCHECK1","Value":{"x":1359,"y":937}},{"Key":"S_OUTPUT_INSERTBUF","Value":{"x":1356,"y":910}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":38,"y":202}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":397,"y":376}},{"Key":"S_CONTENTS_1","Value":{"x":186,"y":373}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":620,"y":32}},{"Key":"S_GETLINE_LC","Value":{"x":160,"y":470}},{"Key":"S_IS_END_LC","Value":{"x":390,"y":511}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":832,"y":747}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":1069,"y":867}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1942,"y":1288}},{"Key":"S_IS_MACRO_LC","Value":{"x":2157,"y":1295}},{"Key":"S_ADDLINE_LC","Value":{"x":2129,"y":808}},{"Key":"S_NEXT_LC","Value":{"x":1773,"y":220}},{"Key":"S_CHECK_AGAIN","Value":{"x":1043,"y":42}},{"Key":"S_SETUP2_LC","Value":{"x":449,"y":147}},{"Key":"S_IS_COMMENT","Value":{"x":603,"y":633}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1537.00012,"y":80.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":836,"y":44}},{"Key":"S_BIND_SRC","Value":{"x":1279,"y":36}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1801,"y":586}},{"Key":"S_IS_PREFIX","Value":{"x":1732,"y":1277}},{"Key":"S_IS_REGEX_LC","Value":{"x":1283,"y":1003}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1493,"y":1144}},{"Key":"S_SETUP_LC1","Value":{"x":259,"y":79}},{"Key":"S_SETUP_LC2","Value":{"x":249,"y":230}},{"Key":"S_USE_G_TEMPLSRC","Value":{"x":259,"y":79}},{"Key":"S_USE_INSERT_TEMP","Value":{"x":252,"y":228}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
@@ -2236,6 +2632,18 @@
       <c r="AF1" s="17" t="s">
         <v>29</v>
       </c>
+      <c r="AG1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="AU1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2335,6 +2743,18 @@
       <c r="AF2" s="17" t="s">
         <v>183</v>
       </c>
+      <c r="AG2" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ2" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK2" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="AU2" s="4" t="s">
         <v>142</v>
       </c>
@@ -2374,7 +2794,7 @@
         <v>62</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>53</v>
@@ -2429,6 +2849,18 @@
       </c>
       <c r="AF3" s="17" t="s">
         <v>184</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="AU3" s="7" t="s">
         <v>143</v>
@@ -2480,7 +2912,7 @@
         <v>87</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>80</v>
@@ -2495,13 +2927,22 @@
         <v>97</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>115</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>85</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="true">
@@ -2544,7 +2985,7 @@
         <v>88</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="O7" s="11" t="s">
         <v>89</v>
@@ -2596,6 +3037,15 @@
       </c>
       <c r="AF7" s="17" t="s">
         <v>185</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH7" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="AU7" s="11" t="s">
         <v>144</v>
@@ -2718,6 +3168,9 @@
       <c r="F20" s="13" t="s">
         <v>136</v>
       </c>
+      <c r="N20" s="17" t="s">
+        <v>198</v>
+      </c>
       <c r="O20" s="13" t="s">
         <v>122</v>
       </c>
@@ -2743,13 +3196,16 @@
         <v>127</v>
       </c>
       <c r="AD20" s="13" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="AE20" s="17" t="s">
         <v>186</v>
       </c>
       <c r="AF20" s="17" t="s">
         <v>145</v>
+      </c>
+      <c r="AJ20" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>146</v>
@@ -2856,6 +3312,18 @@
       <c r="AF23" s="17" t="s">
         <v>96</v>
       </c>
+      <c r="AG23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH23" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ23" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="AK23" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="AU23" s="16" t="s">
         <v>96</v>
       </c>
@@ -2864,62 +3332,107 @@
       <c r="B24" s="16" t="s">
         <v>149</v>
       </c>
+      <c r="D24" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="M24" s="17" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="N24" s="17" t="s">
         <v>155</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>166</v>
+        <v>220</v>
+      </c>
+      <c r="Z24" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="AA24" s="17" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>169</v>
+        <v>224</v>
+      </c>
+      <c r="AD24" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="AE24" s="17" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
       <c r="AF24" s="17" t="s">
-        <v>189</v>
+        <v>227</v>
+      </c>
+      <c r="AG24" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH24" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ24" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK24" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="AU24" s="17" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" s="16" customFormat="true">
@@ -3012,6 +3525,18 @@
       </c>
       <c r="AF25" s="17" t="s">
         <v>191</v>
+      </c>
+      <c r="AG25" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH25" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ25" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK25" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="AU25" s="16" t="s">
         <v>147</v>
@@ -3024,21 +3549,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3052,7 +3577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3066,7 +3591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3080,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/psggConverter/psggConverterLib/sm/SourceControl.xlsx
+++ b/psggConverter/psggConverterLib/sm/SourceControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="94" r:id="rId40"/>
-    <sheet name="help" sheetId="93" r:id="rId39"/>
-    <sheet name="setting.ini" sheetId="92" r:id="rId38"/>
-    <sheet name="template-statefunc" sheetId="91" r:id="rId37"/>
-    <sheet name="template-source" sheetId="90" r:id="rId36"/>
-    <sheet name="config" sheetId="89" r:id="rId35"/>
+    <sheet name="itemsinfo" sheetId="106" r:id="rId52"/>
+    <sheet name="help" sheetId="105" r:id="rId51"/>
+    <sheet name="setting.ini" sheetId="104" r:id="rId50"/>
+    <sheet name="template-statefunc" sheetId="103" r:id="rId49"/>
+    <sheet name="template-source" sheetId="102" r:id="rId48"/>
+    <sheet name="config" sheetId="101" r:id="rId47"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="231">
   <si>
     <t>thumbnail</t>
   </si>
@@ -1344,6 +1344,201 @@
 userbutton_command=@@@
 @@@
 userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>E_OPTIONS1</t>
+  </si>
+  <si>
+    <t>インデント数</t>
+  </si>
+  <si>
+    <t>public int m_indent;</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+The root</t>
+  </si>
+  <si>
+    <t>/
+(100,100)
+</t>
+  </si>
+  <si>
+    <t>119,327</t>
+  </si>
+  <si>
+    <t>100043</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/05/31 8:25:47
+; * pssgEditor version : 0.64.60298.no hash because of debug
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+mov,E_OPTIONS1
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/CreateSource\/","Value":"ソース生成"},{"Key":"\/CreateSource\/LineConvert\/","Value":"行変換"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}},{"Key":"\/CreateSource\/","Value":{"x":713,"y":750}},{"Key":"\/CreateSource\/LineConvert\/","Value":{"x":635,"y":382}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":469}},{"Key":"S_END","Value":{"x":1693,"y":494}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":980,"y":346}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1357,"y":757}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":915,"y":751}},{"Key":"S_CHECKMODE","Value":{"x":246,"y":448}},{"Key":"S_OUTPUTCHECK","Value":{"x":1119,"y":759}},{"Key":"S_OUTPUT_INSERTBUF","Value":{"x":1356,"y":910}},{"Key":"E_OPTIONS","Value":{"x":119,"y":257}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}},{"Key":"E_OPTIONS1","Value":{"x":118.882355,"y":327.352936}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":38,"y":202}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":397,"y":376}},{"Key":"S_CONTENTS_1","Value":{"x":186,"y":373}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":620,"y":32}},{"Key":"S_GETLINE_LC","Value":{"x":160,"y":470}},{"Key":"S_IS_END_LC","Value":{"x":390,"y":511}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":832,"y":747}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":1069,"y":867}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1942,"y":1288}},{"Key":"S_IS_MACRO_LC","Value":{"x":2157,"y":1295}},{"Key":"S_ADDLINE_LC","Value":{"x":2129,"y":808}},{"Key":"S_NEXT_LC","Value":{"x":1773,"y":220}},{"Key":"S_CHECK_AGAIN","Value":{"x":1043,"y":42}},{"Key":"S_SETUP2_LC","Value":{"x":449,"y":147}},{"Key":"S_IS_COMMENT","Value":{"x":603,"y":633}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1537.00012,"y":80.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":836,"y":44}},{"Key":"S_BIND_SRC","Value":{"x":1279,"y":36}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1801,"y":586}},{"Key":"S_IS_PREFIX","Value":{"x":1732,"y":1277}},{"Key":"S_IS_REGEX_LC","Value":{"x":1283,"y":1003}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1493,"y":1144}},{"Key":"S_USE_G_TEMPLSRC","Value":{"x":259,"y":79}},{"Key":"S_USE_INSERT_TEMP","Value":{"x":252,"y":228}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=1
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/05/31 8:25:57
+; * pssgEditor version : 0.64.60298.no hash because of debug
+psggfile=@@@
+SourceControl.psgg
+@@@
+xlsfile=@@@
+SourceControl.xlsx
+@@@
+guid=@@@
+175debba-7295-43cf-97b6-5a0e6402b4c8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+init,Saved
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":"This is the root"},{"Key":"\/CreateSource\/","Value":"ソース生成"},{"Key":"\/CreateSource\/LineConvert\/","Value":"行変換"}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}},{"Key":"\/CreateSource\/","Value":{"x":713,"y":750}},{"Key":"\/CreateSource\/LineConvert\/","Value":{"x":635,"y":382}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":38,"y":469}},{"Key":"S_END","Value":{"x":1693,"y":494}},{"Key":"S_LOADSETTING","Value":{"x":623,"y":237}},{"Key":"S_SETLANG","Value":{"x":980,"y":346}},{"Key":"S_WRITEHEDDER","Value":{"x":489,"y":747}},{"Key":"S_CREATESOURCE","Value":{"x":608,"y":185}},{"Key":"S_WRITEFILE","Value":{"x":1357,"y":757}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":915,"y":751}},{"Key":"S_CHECKMODE","Value":{"x":246,"y":448}},{"Key":"S_OUTPUTCHECK","Value":{"x":1119,"y":759}},{"Key":"S_OUTPUT_INSERTBUF","Value":{"x":1356,"y":910}},{"Key":"E_OPTIONS","Value":{"x":119,"y":257}},{"Key":"____altnative_state____CreateSource","Value":{"x":713,"y":750}},{"Key":"E_OPTIONS1","Value":{"x":119,"y":327}}]},{"Key":"\/CreateSource\/","Value":[{"Key":"S_WRITEHEDDER","Value":{"x":19,"y":16}},{"Key":"S_CREATESOURCE","Value":{"x":38,"y":202}},{"Key":"S_WRITEFILE","Value":{"x":889.1764,"y":391.117676}},{"Key":"S_CONTENTS_2","Value":{"x":397,"y":376}},{"Key":"S_CONTENTS_1","Value":{"x":186,"y":373}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":927.941162,"y":314.352966}},{"Key":"____altnative_state____LineConvert","Value":{"x":635,"y":382}}]},{"Key":"\/CreateSource\/LineConvert\/","Value":[{"Key":"S_CONTENTS_2","Value":{"x":45,"y":27}},{"Key":"S_WRITEFILE","Value":{"x":1068.88232,"y":241.9412}},{"Key":"S_SETUP_LC","Value":{"x":45,"y":182}},{"Key":"S_CHECKCOUNT_LC","Value":{"x":620,"y":32}},{"Key":"S_GETLINE_LC","Value":{"x":160,"y":470}},{"Key":"S_IS_END_LC","Value":{"x":390,"y":511}},{"Key":"S_IS_CONTENTS_1_LC","Value":{"x":832,"y":747}},{"Key":"S_IS_CONTENTS_2_LC","Value":{"x":1069,"y":867}},{"Key":"S_IS_INCLUDE_LC","Value":{"x":1942,"y":1288}},{"Key":"S_IS_MACRO_LC","Value":{"x":2157,"y":1295}},{"Key":"S_ADDLINE_LC","Value":{"x":2129,"y":808}},{"Key":"S_NEXT_LC","Value":{"x":1773,"y":220}},{"Key":"S_CHECK_AGAIN","Value":{"x":1043,"y":42}},{"Key":"S_SETUP2_LC","Value":{"x":449,"y":147}},{"Key":"S_IS_COMMENT","Value":{"x":603,"y":633}},{"Key":"S_ESCAPE_TO_CHAR","Value":{"x":1537.00012,"y":80.41182}},{"Key":"S_LINESTOBUF_LC","Value":{"x":836,"y":44}},{"Key":"S_BIND_SRC","Value":{"x":1279,"y":36}},{"Key":"S_SET_CHECKAGAIN","Value":{"x":1801,"y":586}},{"Key":"S_IS_PREFIX","Value":{"x":1732,"y":1277}},{"Key":"S_IS_REGEX_LC","Value":{"x":1283,"y":1003}},{"Key":"S_IS_REGEX2_LC","Value":{"x":1493,"y":1144}},{"Key":"S_USE_G_TEMPLSRC","Value":{"x":259,"y":79}},{"Key":"S_USE_INSERT_TEMP","Value":{"x":252,"y":228}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4282417280},"pattern":"br_CONTINUE"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=0
+option_omit_basestate_string=0
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=4
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
 </t>
   </si>
 </sst>
@@ -2004,6 +2199,9 @@
       <c r="AL1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="AU1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2118,6 +2316,9 @@
       <c r="AL2" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="AM2" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="AU2" s="4" t="s">
         <v>137</v>
       </c>
@@ -2224,6 +2425,9 @@
       </c>
       <c r="AK3" s="15" t="s">
         <v>197</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="AU3" s="7" t="s">
         <v>138</v>
@@ -2322,6 +2526,9 @@
       <c r="AL7" s="15" t="s">
         <v>215</v>
       </c>
+      <c r="AM7" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="8" s="10" customFormat="true" ht="18.75" customHeight="true">
       <c r="A8" s="10" t="s">
@@ -4622,25 +4829,25 @@
         <v>50</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>136</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>136</v>
@@ -4688,7 +4895,7 @@
         <v>92</v>
       </c>
       <c r="Z24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="AA24" s="14" t="s">
         <v>92</v>
@@ -4700,7 +4907,7 @@
         <v>92</v>
       </c>
       <c r="AD24" s="14" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="AE24" s="14" t="s">
         <v>92</v>
@@ -4718,16 +4925,16 @@
         <v>50</v>
       </c>
       <c r="AJ24" s="14" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AK24" s="14" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AL24" s="14" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="AN24" s="14" t="s">
         <v>50</v>
@@ -4870,7 +5077,7 @@
         <v>210</v>
       </c>
       <c r="AM25" s="14" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="AN25" s="14" t="s">
         <v>50</v>
@@ -5013,7 +5220,7 @@
         <v>211</v>
       </c>
       <c r="AM26" s="14" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="AN26" s="14" t="s">
         <v>50</v>
@@ -5047,21 +5254,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5075,7 +5282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5089,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5103,7 +5310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5117,7 +5324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
